--- a/SmokeTestCompareAsia/src/testData/TestData.xlsx
+++ b/SmokeTestCompareAsia/src/testData/TestData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="125">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2334,7 +2334,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="5"/>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
